--- a/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>IMGO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +711,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,23 +823,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +992,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,14 +1004,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,14 +1050,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,23 +1070,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,23 +1134,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,19 +1166,22 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1230,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1262,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,14 +1434,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,23 +1454,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1518,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,17 +1617,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>9000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,17 +1647,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E42" s="3">
         <v>73800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1679,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,17 +1743,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,17 +1775,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E46" s="3">
         <v>84700</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,17 +1807,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>6500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,16 +1839,19 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1763,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,17 +1967,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,17 +2031,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E54" s="3">
         <v>93400</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,17 +2093,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,17 +2155,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,17 +2187,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,17 +2379,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,17 +2489,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>162600</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2553,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,17 +2681,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>-75600</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2782,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,19 +2830,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,20 +3020,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3">
         <v>-16900</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,19 +3068,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,20 +3162,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
         <v>-74300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,20 +3336,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>105600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,20 +3400,23 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3">
         <v>14300</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>IMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,8 +715,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,8 +750,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,26 +837,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7100</v>
+        <v>9100</v>
       </c>
       <c r="E12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +905,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +940,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,26 +989,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="3">
         <v>8800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1022,11 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,17 +1034,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1074,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1053,14 +1087,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,26 +1107,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-8800</v>
       </c>
       <c r="F21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-17800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,26 +1177,29 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-11700</v>
       </c>
       <c r="E23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,11 +1226,11 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,26 +1282,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-11700</v>
       </c>
       <c r="E26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,26 +1317,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-11700</v>
       </c>
       <c r="E27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1492,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1437,14 +1507,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,26 +1527,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-11700</v>
       </c>
       <c r="E33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,26 +1597,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-11700</v>
       </c>
       <c r="E35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,31 +1632,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,20 +1704,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,20 +1737,23 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E42" s="3">
         <v>74500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>73800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1682,8 +1772,11 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,20 +1842,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,20 +1877,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E46" s="3">
         <v>82600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>84700</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1819,11 +1924,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>6500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1947,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1853,8 +1961,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,20 +2087,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,20 +2157,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>237300</v>
+      </c>
+      <c r="E54" s="3">
         <v>85200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93400</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,20 +2224,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,20 +2292,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,20 +2327,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,8 +2397,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,20 +2537,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>8900</v>
       </c>
       <c r="E66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2672,7 @@
         <v>162600</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>162600</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,20 +2727,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-86300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,20 +2867,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>228400</v>
       </c>
       <c r="E76" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-75600</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,31 +2937,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,26 +2977,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-11700</v>
       </c>
       <c r="E81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,25 +3029,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,25 +3237,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7200</v>
       </c>
       <c r="F89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-16900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>-3800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3080,11 +3301,11 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,25 +3392,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5700</v>
       </c>
       <c r="F94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-74300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>1800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,23 +3582,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>161500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>105600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,25 +3652,28 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2400</v>
       </c>
       <c r="F102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G102" s="3">
         <v>14300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>-2000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>IMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44012</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -718,8 +718,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +756,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,31 +850,32 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E12" s="3">
         <v>9100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
-        <v>15000</v>
-      </c>
       <c r="H12" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3400</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1015,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E17" s="3">
         <v>11700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
-        <v>18100</v>
-      </c>
       <c r="H17" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>5600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1051,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,22 +1063,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-18100</v>
-      </c>
       <c r="H18" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-5600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,22 +1117,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>300</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1110,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,22 +1155,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H21" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-5500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,31 +1219,34 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-5500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,13 +1257,16 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1229,8 +1274,8 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1333,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H26" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-5500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1371,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H27" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-5600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3700</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,22 +1573,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-300</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1530,31 +1599,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H33" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-5600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3700</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1675,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H35" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-5600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3700</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,36 +1713,39 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44012</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1790,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E41" s="3">
         <v>85200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,23 +1826,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E42" s="3">
         <v>145100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>74500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>73800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1775,8 +1864,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1902,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,23 +1940,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,23 +1978,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E46" s="3">
         <v>234600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>82600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>84700</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1927,11 +2031,11 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>6500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,8 +2054,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1964,8 +2071,8 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1985,8 +2092,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,23 +2206,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2282,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224800</v>
+      </c>
+      <c r="E54" s="3">
         <v>237300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>93400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,23 +2354,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,23 +2428,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,23 +2466,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
         <v>8900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,8 +2542,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2694,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>162600</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>162600</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>162600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2900,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-112700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-97900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3052,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E76" s="3">
         <v>228400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-83800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-75600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,36 +3128,39 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44012</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2980,31 +3171,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H81" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-5600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3700</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3050,11 +3248,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,31 +3453,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H89" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-4900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-3600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3304,14 +3524,14 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,31 +3621,34 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-74300</v>
-      </c>
       <c r="H94" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-64100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,28 +3827,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>161500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>105600</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>79700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>19900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3620,8 +3865,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,31 +3903,34 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E102" s="3">
         <v>78600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10300</v>
       </c>
-      <c r="G102" s="3">
-        <v>14300</v>
-      </c>
       <c r="H102" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>10800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>IMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,72 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +767,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +811,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +855,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,46 +877,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F12" s="3">
         <v>12100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>9100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +961,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +1005,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1049,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,46 +1068,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F17" s="3">
         <v>14800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,37 +1123,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1174,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,10 +1188,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1132,22 +1200,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,37 +1229,43 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-11700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,57 +1302,69 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1390,14 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,84 +1434,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1566,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1610,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1654,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1698,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,10 +1716,10 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1588,60 +1728,72 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,89 +1830,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1945,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,29 +1963,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F41" s="3">
         <v>11200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>85200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,29 +2003,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>197600</v>
+      </c>
+      <c r="F42" s="3">
         <v>206200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>145100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>74500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>73800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +2047,14 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +2091,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,29 +2135,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,29 +2179,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F46" s="3">
         <v>221300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>234600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>82600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>84700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,29 +2223,35 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>6500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,8 +2267,14 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2074,11 +2290,11 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2311,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2355,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2399,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2443,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2218,20 +2458,20 @@
         <v>3500</v>
       </c>
       <c r="E52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2487,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,29 +2531,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>212400</v>
+      </c>
+      <c r="F54" s="3">
         <v>224800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>237300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>85200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>93400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2575,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2597,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,29 +2615,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2655,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,29 +2699,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,29 +2743,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2787,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2831,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2583,8 +2875,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2919,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2963,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,29 +3007,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +3051,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +3073,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +3113,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +3157,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,17 +3175,17 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>162600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>162600</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2865,8 +3201,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,29 +3245,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-112700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-97900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-86300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-77500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3289,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3333,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3377,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,29 +3421,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>199500</v>
+      </c>
+      <c r="F76" s="3">
         <v>214700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>228400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-83800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-75600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3465,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,89 +3509,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3624,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3254,11 +3652,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3266,8 +3664,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3708,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3752,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3796,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3840,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,46 +3884,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3950,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,17 +3969,17 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3548,8 +3990,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +4034,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,46 +4078,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-61100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-70700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>5700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-64100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +4144,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +4184,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +4228,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4272,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,35 +4316,41 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>161500</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>79700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>19900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4360,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,42 +4404,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-74000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>78600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-10300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMGO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>IMGO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,8 +730,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -773,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,41 +892,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E12" s="3">
         <v>9700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>14000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,8 +1141,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1123,32 +1153,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1194,7 +1228,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1206,11 +1240,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1254,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,32 +1266,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,41 +1348,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,11 +1409,11 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1722,7 +1792,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1734,11 +1804,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>85200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,32 +2096,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E42" s="3">
         <v>167200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>197600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>206200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>145100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>74500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>73800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,32 +2237,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,32 +2284,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E46" s="3">
         <v>192600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>209000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>221300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>84700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,8 +2345,8 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2250,11 +2355,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>6500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,8 +2378,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2296,8 +2404,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,13 +2566,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="E52" s="3">
         <v>3500</v>
@@ -2464,17 +2584,17 @@
         <v>3500</v>
       </c>
       <c r="G52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E54" s="3">
         <v>196100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>212400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>224800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>237300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>85200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>93400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,32 +2747,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,32 +2839,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,32 +2886,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,8 +2980,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>162600</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>162600</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>162600</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-129000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-97900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-86300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>187300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>199500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>214700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>228400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-83800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-75600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,8 +3857,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4172,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3975,14 +4196,14 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4311,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>30300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,38 +4565,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>161500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>79700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,41 +4659,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>14500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-74000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>78600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
